--- a/staticCompiled.xlsx
+++ b/staticCompiled.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesley\Documents\GitHub\Modelling-Disease-with-Twitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesley\Documents\GitHub\Modeling-Disease-with-Twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,18 +14,12 @@
   <sheets>
     <sheet name="staticCompiled" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
-  <si>
-    <t>Predicted</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Self reporting sick with Chikungunya virus</t>
   </si>
@@ -80,11 +74,26 @@
   <si>
     <t xml:space="preserve">Educational </t>
   </si>
+  <si>
+    <t>Correlations</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Actual Susupected Cases</t>
+  </si>
+  <si>
+    <t>from Lasso Model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,9 +580,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -630,6 +641,1426 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>In-Sample Fitted Cases</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Actual</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>staticCompiled!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>from Lasso Model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>staticCompiled!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy;@</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>staticCompiled!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>83.502884941299996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.759671535999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.798294277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.492791224899999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310.57848658099999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.125406118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>507.42377098399999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>841.39083970499996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1025.8587483399999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>522.06910628900005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>568.81146385600005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>888.47268684100004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>978.71473895700001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1069.1535044699999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1019.47138481</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2141.6783506000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1374.8283484000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1103.86952206</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1668.89685874</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1529.5773559500001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.93835036</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3340.7308922399998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>832.97984198699999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1111.6188475700001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1390.2578531500001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>staticCompiled!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Susupected Cases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>staticCompiled!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy;@</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>staticCompiled!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3984</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="499783464"/>
+        <c:axId val="499788952"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="499783464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499788952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="499788952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>New Weekly Counts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499783464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3257728584199489E-2"/>
+          <c:y val="0.13738181642064184"/>
+          <c:w val="0.30103826857561117"/>
+          <c:h val="5.2957808011204685E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>422413</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>86141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409988</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39024</cdr:x>
+      <cdr:y>0.11991</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39452</cdr:x>
+      <cdr:y>0.79531</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="3776823" y="487258"/>
+          <a:ext cx="41423" cy="2744452"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.65608</cdr:x>
+      <cdr:y>0.11894</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66036</cdr:x>
+      <cdr:y>0.79434</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Connector 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="6349720" y="483319"/>
+          <a:ext cx="41423" cy="2744452"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -895,547 +2326,724 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>41805</v>
+      </c>
+      <c r="B2">
+        <v>83.502884941299996</v>
+      </c>
+      <c r="C2">
+        <v>119</v>
+      </c>
+      <c r="D2">
+        <f>CORREL(B2:B11,C2:C11)</f>
+        <v>0.94335356929014336</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>96.295409336099993</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>43.107979453699997</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>46.851192859100003</v>
+      </c>
+      <c r="P2">
+        <v>58.386897230099997</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>9.1848868038999996</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>41812</v>
+      </c>
+      <c r="B3">
+        <v>79.759671535999999</v>
+      </c>
+      <c r="C3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>41819</v>
+      </c>
+      <c r="B4">
+        <v>179.798294277</v>
+      </c>
+      <c r="C4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>41826</v>
+      </c>
+      <c r="B5">
+        <v>16.492791224899999</v>
+      </c>
+      <c r="C5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>41833</v>
+      </c>
+      <c r="B6">
+        <v>310.57848658099999</v>
+      </c>
+      <c r="C6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>41840</v>
+      </c>
+      <c r="B7">
+        <v>512.125406118</v>
+      </c>
+      <c r="C7">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>41847</v>
+      </c>
+      <c r="B8">
+        <v>507.42377098399999</v>
+      </c>
+      <c r="C8">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>41854</v>
+      </c>
+      <c r="B9">
+        <v>841.39083970499996</v>
+      </c>
+      <c r="C9">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>41861</v>
+      </c>
+      <c r="B10">
+        <v>1025.8587483399999</v>
+      </c>
+      <c r="C10">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="2">
+        <v>41868</v>
+      </c>
+      <c r="B11" s="1">
+        <v>522.06910628900005</v>
+      </c>
+      <c r="C11" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="3">
+        <v>41875</v>
+      </c>
+      <c r="B12">
+        <v>568.81146385600005</v>
+      </c>
+      <c r="C12">
+        <v>762</v>
+      </c>
+      <c r="D12">
+        <f>CORREL(B12:B19,C12:C19)</f>
+        <v>0.92906021882786749</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>41882</v>
+      </c>
+      <c r="B13">
+        <v>888.47268684100004</v>
+      </c>
+      <c r="C13">
+        <v>530</v>
+      </c>
+      <c r="E13">
+        <v>21.751472744499999</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>21.0648978364</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>34.029442681200003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>41889</v>
+      </c>
+      <c r="B14">
+        <v>978.71473895700001</v>
+      </c>
+      <c r="C14">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>41896</v>
+      </c>
+      <c r="B15">
+        <v>1069.1535044699999</v>
+      </c>
+      <c r="C15">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>41903</v>
+      </c>
+      <c r="B16">
+        <v>1019.47138481</v>
+      </c>
+      <c r="C16">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>41910</v>
+      </c>
+      <c r="B17">
+        <v>2141.6783506000002</v>
+      </c>
+      <c r="C17">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>41917</v>
+      </c>
+      <c r="B18">
+        <v>1374.8283484000001</v>
+      </c>
+      <c r="C18">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2">
+        <v>41924</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1103.86952206</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="3">
+        <v>41931</v>
+      </c>
+      <c r="B20">
+        <v>1668.89685874</v>
+      </c>
+      <c r="C20">
+        <v>1363</v>
+      </c>
+      <c r="D20">
+        <f>CORREL(B20:B26,C20:C26)</f>
+        <v>0.79666353698744252</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S20" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" t="s">
+        <v>15</v>
+      </c>
+      <c r="U20" t="s">
+        <v>16</v>
+      </c>
+      <c r="V20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>41938</v>
+      </c>
+      <c r="B21">
+        <v>1529.5773559500001</v>
+      </c>
+      <c r="C21">
+        <v>1163</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>139.31950279200001</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>41945</v>
+      </c>
+      <c r="B22">
+        <v>1250.93835036</v>
+      </c>
+      <c r="C22">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>41952</v>
+      </c>
+      <c r="B23">
+        <v>3340.7308922399998</v>
+      </c>
+      <c r="C23">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>41973</v>
+      </c>
+      <c r="B24">
+        <v>832.97984198699999</v>
+      </c>
+      <c r="C24">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>41980</v>
+      </c>
+      <c r="B25">
+        <v>1111.6188475700001</v>
+      </c>
+      <c r="C25">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>41994</v>
+      </c>
+      <c r="B26">
+        <v>1390.2578531500001</v>
+      </c>
+      <c r="C26">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>42008</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>83.502884941299996</v>
-      </c>
-      <c r="B2">
-        <v>119</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>96.295409336099993</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>43.107979453699997</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>46.851192859100003</v>
-      </c>
-      <c r="O2">
-        <v>58.386897230099997</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>9.1848868038999996</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>79.759671535999999</v>
-      </c>
-      <c r="B3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>179.798294277</v>
-      </c>
-      <c r="B4">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>16.492791224899999</v>
-      </c>
-      <c r="B5">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>310.57848658099999</v>
-      </c>
-      <c r="B6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>512.125406118</v>
-      </c>
-      <c r="B7">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>507.42377098399999</v>
-      </c>
-      <c r="B8">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>841.39083970499996</v>
-      </c>
-      <c r="B9">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1025.8587483399999</v>
-      </c>
-      <c r="B10">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="1">
-        <v>522.06910628900005</v>
-      </c>
-      <c r="B11" s="1">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>568.81146385600005</v>
-      </c>
-      <c r="B12">
-        <v>762</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R12" t="s">
-        <v>16</v>
-      </c>
-      <c r="S12" t="s">
-        <v>17</v>
-      </c>
-      <c r="T12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>888.47268684100004</v>
-      </c>
-      <c r="B13">
-        <v>530</v>
-      </c>
-      <c r="D13">
-        <v>21.751472744499999</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>21.0648978364</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>34.029442681200003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>978.71473895700001</v>
-      </c>
-      <c r="B14">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>1069.1535044699999</v>
-      </c>
-      <c r="B15">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>1019.47138481</v>
-      </c>
-      <c r="B16">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>2141.6783506000002</v>
-      </c>
-      <c r="B17">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>1374.8283484000001</v>
-      </c>
-      <c r="B18">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="1">
-        <v>1103.86952206</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>1668.89685874</v>
-      </c>
-      <c r="B20">
-        <v>1363</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" t="s">
-        <v>11</v>
-      </c>
-      <c r="N20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" t="s">
-        <v>13</v>
-      </c>
-      <c r="P20" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>15</v>
-      </c>
-      <c r="R20" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" t="s">
-        <v>17</v>
-      </c>
-      <c r="T20" t="s">
-        <v>18</v>
-      </c>
-      <c r="U20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>1529.5773559500001</v>
-      </c>
-      <c r="B21">
-        <v>1163</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>139.31950279200001</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>1250.93835036</v>
-      </c>
-      <c r="B22">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>3340.7308922399998</v>
-      </c>
-      <c r="B23">
-        <v>3984</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>832.97984198699999</v>
-      </c>
-      <c r="B24">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>1111.6188475700001</v>
-      </c>
-      <c r="B25">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>1390.2578531500001</v>
-      </c>
-      <c r="B26">
-        <v>239</v>
-      </c>
+      <c r="D28">
+        <f>CORREL(B2:B26,C2:C26)</f>
+        <v>0.89690317340545056</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>